--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -18,15 +18,132 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>CGST 9%</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>SFD1
+Typology: 3 Track 3 Glass Shutters
+System: A3500 Sliding Series
+Profile: Aluline
+Sizes: 3200mm x 2140mm
+Window Hardware: Multipoint
+Touch Lock
+Coating Type: Powder Coating</t>
+  </si>
+  <si>
+    <t>W-1
+Typology: 2 Track 2 Glass Shutter
+System: A3000 Sliding Series
+Profile: Aluline
+Sizes: 1450 mm x 1195mm
+Coating Type: Powder Coating
+Window Hardware: Single-point
+Locking and Touch Lock</t>
+  </si>
+  <si>
+    <t>SD1
+Typology: 3 Track 3 Glass Shutter
+System: A3500 Sliding Series
+Profile: Aluline
+Sizes: 2800 mm x 2130mm
+Coating Type: Powder Coating
+Window Hardware: Multi point
+Touch Lock</t>
+  </si>
+  <si>
+    <t>W-2
+Typology: 2Track 2 Glass Shutter
+and Openable Window
+System: A3000 Sliding Series &amp; A4000
+Casement Series
+Profile: Aluline
+Sizes: 2200 mm x 1205mm
+Coating Type: Powder Coating
+Window Hardware: Single point
+Locking and Cockspur handle</t>
+  </si>
+  <si>
+    <t>W- 3
+Typology: Openable Window
+System: A 4000 Casement Series
+Profile: Aluline
+Sizes: 585 mm x 1145mm
+Coating Type: Powder Coating
+Window Hardware: Single point
+Locking and Cockspur handle</t>
+  </si>
+  <si>
+    <t>SD2
+Typology: Openable Door
+System: A 4000 Casement Series
+Profile: Aluline
+Sizes: 1265mm x 2075mm
+Window Hardware: Single point
+Locking with Cockspur Handle
+Coating Type: Powder Coating</t>
+  </si>
+  <si>
+    <t>SD3
+Typology: 3Track 3 Glass Shutter
+System: A3500 Sliding Series
+Profile: Aluline
+Sizes: 4265 mm x 2635mm
+Coating Type: Powder Coating
+Window Hardware: Multi Point
+touch lock</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,19 +162,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -75,6 +210,277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>256547</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2400300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1809442</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117607" y="472440"/>
+          <a:ext cx="2143753" cy="1756102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2339339</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2065020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="2354580"/>
+          <a:ext cx="2057399" cy="1958340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>325820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>195950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2103120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186880" y="4562210"/>
+          <a:ext cx="2188780" cy="1907170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>294176</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>62966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2209799</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1920240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1155236" y="6661886"/>
+          <a:ext cx="1915623" cy="1857274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601981</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1988821</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1653541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1463041" y="8785861"/>
+          <a:ext cx="1386840" cy="1531620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2278380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2123581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1226820" y="10629900"/>
+          <a:ext cx="1912620" cy="1955941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>450748</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2354579</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1573080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311808" y="12832080"/>
+          <a:ext cx="1903831" cy="1420680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,154 +746,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="31.44140625" defaultRowHeight="73.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="31.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>45181</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.41250000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>78592</v>
+      </c>
+      <c r="F2" s="1">
+        <f>D2*E2</f>
+        <v>78592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>45182</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22257</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F12" si="0">D3*E3</f>
+        <v>22257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45183</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4069444444444445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>71713</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>71713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="162.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>45184</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>34353</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>34353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="141.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>45185</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10437</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>10437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="174.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>45187</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25926</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>25926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>45190</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.40902777777777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45191</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.42708333333333331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45194</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45195</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45196</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>45197</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.4201388888888889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>45198</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.4236111111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>45199</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.43055555555555558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>45201</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.40625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>45202</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.40277777777777773</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>45203</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.40625</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>111355</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>111355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1">
+        <f>SUM(F2:F8)</f>
+        <v>354633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1">
+        <v>31916</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1">
+        <v>31916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="1">
+        <v>418466</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>